--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/79_Yalova_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/79_Yalova_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8578541D-C260-45AD-BBBB-7A0E5A65F325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B846BDD2-D4FE-4C0D-AA35-7D1DA275DFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{E9441B65-3424-40B8-B117-353D2751DC78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{7DF7449B-B75D-4AE5-BEEE-FF47FF653021}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -919,14 +919,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{62A2E187-EC0D-4C6D-8959-68F721A3E581}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1150F2EB-F8C5-49E2-9D06-700BE45BF993}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{9A2FC9DD-4EDD-4EFB-9FF7-293C6165E2AF}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{99F50569-9929-4A30-AAB2-C2044EF29516}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{07085F6C-B281-4C26-AB89-5881B5B6017F}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D35F69B5-262D-4E74-B23E-F77175FC2F42}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{AF6739F9-0D07-4883-9D5D-F9C0BF6DF982}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5DDDA171-2E1C-483A-A175-4045999B831F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1F588D2F-180B-4C45-8548-9D03CAC11CE3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{917AFB6D-EFF3-49DF-A6FD-708AE95797B2}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{471B5A15-3BCB-4EF3-92A9-38648895BD8C}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{C8581074-EEFB-47EA-A927-CD7FA85CBCD4}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{46F0B5B2-5356-4186-9A4B-5885AA548164}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{95404E50-A311-4C23-88FA-50F192AC5BE7}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{5895F002-F196-472B-946A-AFB99E35A4F5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{9D8BAA72-D34A-4F71-9080-9288C1E6E0E8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FF28CB-65DF-4903-899B-C883A8A536BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC01A26A-8572-4A00-8C65-A144125BA360}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2581,17 +2581,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE45092F-3C18-467F-B760-C5A34C6B5396}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A2FD01A-1CDB-4E44-BE15-067869259571}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7431BE16-0651-4B68-8F9E-5F497193DD44}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B11D092E-CA82-4001-AE4A-E8F13B100772}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E98E46DF-472E-4EC5-8052-20FEA1A91676}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE52F66A-3620-4DA8-A4A1-20708E9180BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{767BFDFD-0CB4-4B93-874C-54FA6DDD2FD1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F5877F41-8A80-4A77-9A51-FBE6E719824D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76362516-6776-41DE-8ECD-F94C1FDA25AF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83702F6A-0E93-40CA-99CE-DFEF0EF3AE5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF51AC99-E2E2-4125-B704-2FE731A2DC8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C1CFDAB-7C23-4B01-90DD-469A99143479}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A2E65C5-3CBC-47ED-A435-8A842EAAF23E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E311FBF-AB72-4345-9676-72C4EBDE7CA2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{56F85F6D-6DD7-4015-8FD5-25877B2BA936}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6108E8F8-6395-47CD-BDBB-7D3C752D6448}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D402BC3F-243A-4949-B7A2-45CC43297483}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3727F089-0AEE-4DA0-96CB-58B8D0CD7004}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AD5B31F-24A6-4DB3-983B-5405AB422747}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D912D828-5F35-480C-B2B4-C65475DEED93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C90BA0A8-8634-4EFD-8F57-4E4ED8B63E8D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{223699C9-D5C4-4ED7-A757-E3C5731443C6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2604,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4489B15-0B3F-4179-8812-D395553E7365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DBD453-7701-4562-AFA1-247319AD40D9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3891,17 +3891,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE73AF77-37EE-44ED-8E48-D9CDB6941AD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47630012-11C7-4E59-BF79-F6B851AA7F33}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7712C05B-BA20-4244-881A-81D7E3C9615C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{60C41230-A336-47C9-B1F2-60EDDBEB6EE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4DCB428-191A-4692-A126-8EC6469EC3AF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9DF7425D-7D38-4148-BA74-6E7A45F35789}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{903E9BD4-4B04-42D1-AA55-7F88658CE10F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0401D5AA-0921-48AF-80E4-2795812DE827}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A584E58-E75A-4E33-8CB2-73E4E1E9441D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{835242AA-C17A-479F-863B-B7C8E4B3A0C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D554A06F-CC75-44C5-AC18-43FDAD4F492F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9289AB28-9762-4EFD-AED4-803066FD7428}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91F21F68-28E0-40F0-B23F-9C368F0A00BD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{244301E9-98B1-4169-A3C2-1CC5FFBDCC00}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{74DA897B-C8A1-4028-B82E-E03EE099C9F8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7EB56875-D29F-48F9-B7D4-3BA5F196B621}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94E76F49-B3B9-4B7B-B546-69871853BF84}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31080A5E-D26D-44D7-A2DE-12CAF896116A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F257A3EA-3315-4244-9BD2-91679D306E3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C85B3EB-AD10-4E72-AEED-B782E042AA49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6340B4A-8010-4502-A75E-DFBF750BAE09}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA337812-E719-424D-81DD-E8A6E5222811}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3914,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB349F3A-E8C0-4DBA-A5D2-550E341110F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B5358-2B61-4D8D-B775-C68BB156FBB8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5201,17 +5201,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFD29BF1-D9C7-4FFF-984A-DDF38D2CD640}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB05DB36-7736-488D-88E1-383A7E0477DE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9993E27F-87C3-416D-892F-919469505983}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{788FFD28-6115-41E0-BC9B-97AA9E25D0A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5FC9AADD-AFA8-4784-8DE3-E734203F4D7B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB455903-AF89-4241-9F61-FB119AE86997}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A6A1E4C-7A5D-4058-919E-522E6D79F9A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4835947-BB6D-4FF8-816F-F7977F8C0E54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C2D62B1-AAF8-4799-AD1E-D10363D87D11}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F0D459EA-9FF0-492C-8B3F-A82357411898}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B43A29A-ED56-40FD-AFB5-DBC95F5AE9A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B8EF1EB-FEF8-4A87-864E-A5EF87C40D99}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3CF7F002-1B3D-4D68-B96D-CB020DCEF9BE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BF793A7F-355A-42DA-9DD0-7C9EF4429431}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{572AEB38-456B-4A3E-A49F-16D16540A23C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{31548BC3-1DE4-4724-B4D2-81384F3356E9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F2BC2E67-AA75-444E-AD3B-C94E0CC9B095}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CABFDF14-ABEA-42C8-9F41-FA0D8D7B7B38}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{969AA695-B0B7-4715-BC83-78FB4A55A134}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD547799-0918-4830-A18C-1DB841F8CAAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACC05710-6085-46FC-86BD-ACC39BC11BF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F8B2E75-0604-4E8B-8370-BE7B3BC75174}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5224,7 +5224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2614AE-5DBC-4137-861D-7FAC9C569CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035E3D80-F7DB-4097-9879-7A6D7F0FB4E7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6505,17 +6505,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9ADDA11-1BD0-4DCA-902D-961E7BC3E888}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0C106AD-ACEB-4ABD-937C-7EE5107EEF52}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2BF3B5E6-8392-4591-BA22-15CD03752EFD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F1949D44-412E-4E8C-B1AC-5A823D513791}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0535953-09E7-4928-A928-7A44B9B02EC8}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A9B957DE-D15B-4D99-A0F8-4EF935D10762}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE61E46F-4C99-4D42-9062-85D276663B27}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40398662-92FB-4296-8C64-3E276C2D9A6E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72B7A7E3-33C8-4D63-B3E3-1CCA1FE66F04}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{944131C1-8251-4691-84E8-5B4A7A7A82A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{680B4897-9183-43C8-9CE3-AD2278C7A9D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BACEE7DF-A5CF-46B5-9D97-19F43D48CC1A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E917FE7-D86B-4532-AECC-0EBC4EB0D7E2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23CE7717-CCDA-4A82-A264-5AB65720D53D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85571295-AE8D-4AE6-B72E-37DFA8A27CC0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFD7F81C-2EAD-40D4-BE56-D4377BA670B4}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7222A7B8-97EE-4F29-8FF0-8B550BDF4F25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAD24CA1-19D3-4275-B9EB-3A2C9E5A0253}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16EB85C7-14E0-422E-8AAF-CBC7729DE479}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0AA13F41-008E-416E-A0D2-B8B1C4BB7E12}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A3F396C-1653-43A4-A54F-064D418525C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCE0DA20-8249-42E8-8AA4-752149F6C599}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6528,7 +6528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC045C1-E299-414C-9887-C551A641A2A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406D42EF-B54B-4112-BAF5-DEE93E600575}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7815,17 +7815,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE65D7BB-8BCC-4B13-A075-9462D4BCFF08}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5343E7C5-A66B-4238-B3FF-5E9D941C2EF6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2DE3201-BCDC-46B0-AD1C-FCCB58888524}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{474ED943-B71D-4766-8A87-E09E5152E884}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F9AFEDC-6137-4CFA-9879-15BE99A41645}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4271B883-5A41-4E85-A58F-2D6A5C104B1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9967061C-2CE2-447E-A489-400E7CC1B7A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5715B420-5DBD-4900-99E0-C43EBEACE7C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93E336DA-1CFF-4A39-B31D-B916FB1804DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2DD6CCC3-E8C4-471F-ACC8-D020E1056F30}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAFC2FDB-7E9F-4A09-94B0-2B99FCB2585D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA54AC59-E413-4E20-9ED6-3CD22D5D17B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD9743DD-D857-47F1-98DF-B81590D3BF01}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{38B8CBF2-EE37-4EBC-AA66-CD766C30E494}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4F806443-7402-4E03-9DA0-2946109A824D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5286ADA2-D362-484F-A743-15B05A808239}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94BF3F22-D7C8-4D73-A80D-E9AF4C3A0F6B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82B07EB1-D94F-4401-91DF-60A68B2C4F3A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8044BA54-479B-4597-B846-118D57E2EE71}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87FD9AEF-9CBA-4F2D-AF0F-EC636F9707F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3001E4C5-BF2D-4D5B-A871-B92003A98B43}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81C4C357-D137-46EC-9236-2524A689E7DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7838,7 +7838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583F168-6D59-4733-A5AF-3FAEFB30A25C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2A649-C9B1-449C-B821-200759D07746}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9127,17 +9127,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CFADADF-BD6C-42DD-B8A2-DB5404797D3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF006F27-C37D-49C7-8E91-EB4F5B7C6648}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E13E3E4-B172-4E9C-B58B-B8702BC78DE2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5A2DAE3-E4F5-44D8-91A2-6B3C7544C580}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{976C7823-C15E-45C1-9A8E-D2F637AD6B22}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B0A0A30E-7C84-4E88-B192-297ED622F6DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E84B17A1-A9F5-44AD-B901-7AD6AFF3927A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0E6DCFB-0749-40F7-826E-CEF09A8FE15B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0A04AB36-C286-4A64-885D-10944E8297DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C92330DD-A048-42F3-B09A-71E6C5F0EE40}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9AB75EA-04FD-40B1-9EEE-6B3316AB4CA7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A190D40-7CF3-4A6B-A842-0594FF88D01E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37513590-A96B-49AB-A168-313002FBFE34}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{209346AD-67CC-4498-99D0-915693709E75}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E9DB6CF-38E7-4D89-9683-C9B6DD678BCF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{08B42B88-0DDC-4977-91A9-FEE8D9EB1F12}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9E346019-4AB4-4072-9790-80B394DF2395}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{346CA5A1-DD68-496E-A712-4ADB9FBB46F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91E58409-4D59-46EF-933D-BA896674AD1E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{572F8785-0D6D-42F9-94F3-6EE453F740E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3D1E2EE7-91A8-4D3A-8CF7-ACE0A0037FF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3782F1C2-5618-4B53-84D9-C38BA862C60C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9150,7 +9150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CD4356-0DA6-4716-97A9-9C37A64ADC89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516F5ED3-CD53-4F71-AD0F-DF37C2D2F5AE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10439,17 +10439,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDA204A9-92F5-4E32-87E4-4515430FF8EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1676D77B-4750-44E3-BCFE-8171E5F7D01F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{961C3A7D-39CC-4B53-9C24-5781EC06E675}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E18FD47E-CD91-452B-AAD0-8B49557138DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CCA179DB-A734-47F6-AE03-AB455EE226BD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3167FF17-785B-45C2-9643-0F03EED3B82E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CA41A6D-CC6A-4091-8E2F-0E1AD441871A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4A181AA2-8917-45A4-9BF1-843D490492D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE62DC6B-E5CD-4388-BE9E-0CEE4BD3244D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCEFCC23-231A-4CF0-8225-80A2270DB22B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B4DFA2C-BA8D-4F63-9106-FF0BEC45ECF4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8DF1841C-CBC7-40E0-B38B-A320B63FF6B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6272EAE-194C-4DB9-B326-62B5EAF4F797}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DDBB421A-3E43-4C0B-B137-FF971BE3A239}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{024BCC76-044F-4803-B1C6-7BD3D75B5FD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53B45434-5B1A-4DAA-8F89-2C15666B093A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62E78ED7-B315-4858-A9F9-143B0928DD62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F5F460B-66BE-404C-9317-F24F99860B5C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7FBE028-E5B2-442D-91FB-39484F2B6E82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35112C9A-23E1-4E60-99E1-B4F60515AB93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C79DF51B-B83B-460E-8C45-7A98C88625DD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7D3411E-54EE-48FE-ACC6-5F19DBB82804}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10462,7 +10462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DF49F7-4480-429D-B27A-07B3C43863E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8494152-E238-472E-9EE8-772D76A8C9E9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11749,17 +11749,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C47B6DA-9D5B-42D1-BDF8-AA6CECBDDB66}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{092A9BD8-4DDA-4D6B-99D3-CE9D50F3A195}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{08BE23C2-35BB-4740-BFE8-93B07800275D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F598889-9CCE-444E-8499-8DEF7C836EA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D7FC187-35C3-4478-8CFD-228E1F781DA7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9CB082DF-5F38-478E-B98C-93A5BA7534CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{931452EC-F402-450E-923A-5A65809F84C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2431EB8-5B8E-4383-8B42-5FD513614CC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C50B596D-321D-44B2-9D0B-1A5BB516A053}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{092E58F7-952D-4BDE-88EC-894EBB59CFC7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{551D1A60-67ED-4C52-8E7D-D7A65D5F0FBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CA52566-4958-425D-B96B-80689066CF4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38ECD723-B37E-442C-99DE-984BBA9899EC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{233D0E3D-71B5-453E-B0C3-6B8022E60444}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4A50C193-60F9-4753-A21F-8018401ED61B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD0FE345-9C64-44B2-92C1-9F0F335C6947}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{83FACE31-6B5C-4542-A1C7-9284CD085338}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B89E779-CDE6-4F1E-85C6-BF194B64DE0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C66D3D47-AD1B-4336-A8EA-9B830F79C5E2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D25A1A4-3FDE-4256-B6EA-94FCB02BCA09}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12BE1335-DEEA-4D3D-9CE5-CA2CCEFBE27B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EBDDA748-017D-416C-8F15-02E0CBB5C4FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11772,7 +11772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609A56E7-234B-4C29-9274-5599D2CCD142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C765F90-65CD-4A0E-BD36-F7DE82ADDA63}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13059,17 +13059,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01EC470C-9BC1-4DC7-AE44-9823D5C5A28E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BE9BA95C-16C6-44C0-9D05-F7EAB268C2EE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6EDB4A8E-B29B-476D-826B-807FA8279BCF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{15D608CF-F005-42DD-8493-122199D88919}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA9EB7E4-FEA2-454B-BC8D-59EAC2916462}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2193EB32-B25B-44F2-8505-56ABA5E42F54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF5BA304-5E8A-4737-B62F-C91958FECE7F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DF06298-7471-4C51-B5F1-B5506A9C7269}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0DDE0366-1961-4E7C-A462-3685B6406B1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F60848E9-ABDE-4737-AC72-E87AE4DF1D00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3E5FC38-2056-461A-936C-E9C9217BA818}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8E263C3-D3F8-4C53-A3A5-9D8F13626A98}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA9A9214-BAD0-43DD-8952-DE93FB57A87E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8E4A7877-7941-4C96-ADB7-92A2460B807E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C6714F6-A4CC-4AA1-91C4-7968A6A22F4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AB68E75-4197-48CA-B5B0-8856CBD76857}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1E147AD-A7D1-487B-8DA1-AD8BBE803F06}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95BE96EF-8B16-4164-878F-73622DCE95E1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EF6ECC7-0198-4127-8213-9FD34418E1A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32C58F39-D1ED-44B3-AF92-EDB06D0E796C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72BE739E-BB82-4B87-BE24-E4AC3B213308}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1556443E-7301-43BB-A788-FF2C8DA0A84F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13082,7 +13082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E01D14D-30D6-4920-9332-4F72595FC8A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E047826-473F-4AE5-B0DD-98E69D0F9241}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14369,17 +14369,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E92206F-CE31-4354-8521-45D4F5CF4E2C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DD48FC8-0E39-4A70-8236-6E4DB59A8CCD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1A9352B-FA9A-4111-8117-674BE5066077}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB1ED3A6-821D-4BCB-9F76-702BC777339B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7DB9A29F-709F-4A75-9B72-E54CAD199DD6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D559664A-B5EF-4CE4-8C86-7C835A7AB510}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6BD3012-E218-435A-BAE7-4658023B2468}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE140272-9474-44E0-9FB5-DECD3E08A002}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53B5AFBD-3816-4097-AF31-651684A6D43D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FC0D4070-5F13-49F2-BD4E-9A3FBC36B464}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA6561DF-CBFF-406B-9246-6797BB8E36DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4837AAA0-6900-4F4C-AEE4-642000134DE8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C0B11BB-6A20-4121-BD8C-32C89B067201}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC1D976E-0B6E-441D-9854-E9B50152F352}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B9DE166A-57BB-46C0-A725-475E2F01E9D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73C4322A-5C65-43D7-9640-5E98937A6200}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DA3C89AC-ECC0-43EC-91F5-ACDD2D83BCA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FEE660D0-104D-4187-86E4-77CA42726E97}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE31BC30-E2F4-4599-BA90-23F99416A317}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90EAE4D9-CD4D-4F2A-8EF6-23EA3700DFBF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC6B81FD-8FDC-4561-802C-466BDC049EAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D22DD3FF-77F3-41D1-8ED2-EBD7A10C9E8D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14392,7 +14392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8165163D-9E30-40E9-B299-5ADB35E6CF0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA18609-8CD4-4A4C-A14B-DD06B5D71FD5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15679,17 +15679,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00680BE6-C704-43E5-980D-DC526D48481B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2AE01239-2075-4550-BC73-ADE9DCA01793}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{42B2F345-25A9-4327-A6B5-A39A2CCB20E5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4FFA22A2-3FEC-4D43-85F3-A20CB0727861}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1757351C-547F-4916-A216-71D774813694}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E43205D0-761F-48EC-AAFF-EE0517FACD7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB98A2DC-A9A3-4845-95E9-2086565DF884}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4A42E03-4CFD-44C5-8D62-A571CC32985F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{57C06353-0648-4134-AA8B-B6E8DD328F34}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B887E1C4-03C0-4FA0-BA4D-E42D16B26C6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80892486-1F36-4282-AA6C-F6BCBC277508}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41E5A7B3-96FF-4EAC-936A-9E4618965E75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20914D88-65F7-4D78-917D-367CD17544D6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C2965813-3CC4-4BBD-9211-2956E2F9E06F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EAC28D05-4AEB-45F9-8712-6CE1FDAF637A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9E36884-C78B-434A-9867-62AAC17AEE16}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{22ECA3B5-A46D-4E1C-9FA7-933A75B675BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E594A284-AB60-4E20-9C05-489B151D9B5E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A745088C-207E-4BB7-BD8A-3CDF5782469D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{235D7EAF-D204-47C5-A274-ED064BC8DED1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FEA250F-5DDC-478B-9A88-06FEA07FDA89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EE1A0A7-5399-4DA8-ABF3-814B3AEAE558}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15702,7 +15702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B38420-71B0-41B4-B0B2-5E9F307AC49C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF750E7B-6DBB-4ADB-8C69-E1CD9D67A14E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16991,17 +16991,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B80F9E52-1EB0-48E1-8A02-579034D027FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B43F7677-BF90-4041-A442-9E47834BF9DA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54ED800B-0475-46EB-9716-D768EC79C7F1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CE9182F5-D943-4074-901D-C165CC066DF0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BDC6D492-B255-4620-A98E-7395C3E202BA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{13038515-0FE9-4BF8-B5A3-761FE70F71A4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93619D9A-2FF6-48DF-BCA0-DE00F47FCEAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B83269FC-9EA5-4D25-8DB6-4EB1AB7B29D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07E1B4CB-A390-47D3-A7AB-9B3377761E50}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4039F294-A00E-422C-9195-F5459B69898D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{06B91F7E-53D8-433E-B022-D33AC1462B86}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB315116-4600-4267-84E5-7033BF679E4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C3725396-3374-4E69-92BF-B9EEF72DEAF2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0872FEF1-6942-4EBD-A370-2A8751FE83C5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4DA25B57-D2E7-42C0-BF70-0BA2EED2684E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{886F7FEA-9A2D-4457-B990-C5125BA18F21}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2C6F1901-E80B-44A6-9B49-998A8FBB673E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA1B9A4F-E565-4C3C-8DA7-5FF5A2B7DF1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8073AB2A-5A0C-44A0-A68C-D80DA4A7B63B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F623D8A-D2BF-4133-9133-1DF52067475A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{50830521-A936-4A05-BEB9-E6E1790FE91D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{199F2EB6-9422-4C48-8D8C-28732E49F6FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
